--- a/DigitalLearningSolutions.Web.Tests/TestData/AllDelegatesExportTest.xlsx
+++ b/DigitalLearningSolutions.Web.Tests/TestData/AllDelegatesExportTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejac\Git\DLSV2\DigitalLearningSolutions.Data.Tests\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\DLSV2\DigitalLearningSolutions.Web.Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA97731-D4B6-4CCE-B37C-F56FF1C9E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5A115C-9B70-4E94-BFBC-89B7255FBAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllDelegates" sheetId="2" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Base / office / place of work</t>
   </si>
   <si>
-    <t>Password set</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>MammalHands</t>
+  </si>
+  <si>
+    <t>Registration complete</t>
   </si>
 </sst>
 </file>
@@ -164,12 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -216,7 +215,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Base / office / place of work"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Base / office / place of work (Prompt 4)"/>
     <tableColumn id="16" xr3:uid="{44A98A3B-F5FE-46E1-AC84-48A003ECA325}" name="Contact telephone number"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Password set"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Registration complete"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Active"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Approved"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Is admin"/>
@@ -512,29 +511,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
     <col min="9" max="9" width="42" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" customWidth="1"/>
-    <col min="12" max="13" width="28.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="27.5546875" customWidth="1"/>
+    <col min="12" max="13" width="28.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -566,44 +565,44 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>44620</v>
       </c>
       <c r="M2" t="b">
@@ -619,30 +618,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3">
         <v>44651</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -657,30 +656,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3">
         <v>36526</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -695,13 +694,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
     </row>
   </sheetData>
